--- a/outputs-GTDB-r202/g__UBA4285.xlsx
+++ b/outputs-GTDB-r202/g__UBA4285.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>s__UBA4285 sp002394965</t>
+          <t>s__UBA4285 sp002394965(reject)</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>s__UBA4285 sp002394965</t>
+          <t>s__UBA4285 sp002394965(reject)</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>s__UBA4285 sp002394965</t>
+          <t>s__UBA4285 sp002394965(reject)</t>
         </is>
       </c>
     </row>
